--- a/biology/Botanique/Hypoxidaceae/Hypoxidaceae.xlsx
+++ b/biology/Botanique/Hypoxidaceae/Hypoxidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hypoxidacées regroupe des plantes monocotylédones. Elle comprend 150 espèces réparties en 9 genres.
 Ce sont des plantes herbacées, pérennes, à rosette, rhizomateuses ou à racine épaissie, à feuilles alternes, des régions tempérées à tropicales, largement répandues mais qui ne se rencontrent pas en Eurasie.
-Cette famille n'existe pas en classification classique de Cronquist (1981)[1], qui inclut cette plantes dans les Liliacées.
+Cette famille n'existe pas en classification classique de Cronquist (1981), qui inclut cette plantes dans les Liliacées.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Hypoxis dérivé du grec υπο (ypo), sous et οξις (oxis), aigu, acide peut se référer à la forme des gousses[2]. Cependant, le nom Hypoxis inventé en 1611 par le botaniste français Paul Reneaulme (1560-1624), signifie "un peu aigre", peut aussi se référer au goût des feuilles de cette plante. Il fut repris par Linné en 1759.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Hypoxis dérivé du grec υπο (ypo), sous et οξις (oxis), aigu, acide peut se référer à la forme des gousses. Cependant, le nom Hypoxis inventé en 1611 par le botaniste français Paul Reneaulme (1560-1624), signifie "un peu aigre", peut aussi se référer au goût des feuilles de cette plante. Il fut repris par Linné en 1759.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 Curculigo Gaertn. (1788)
 Empodium Salisb. (1866)
 Hypoxidia F.Friedmann, Bull. Mus. Natl. Hist. Nat., B (1985)
@@ -556,7 +572,7 @@
 Rhodohypoxis Nel (1914)
 Saniella Hilliard &amp; B.L.Burtt (1978)
 Spiloxene Salisb. (1866)
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 Curculigo Gaertn.
 Empodium Salisb.
 Hypoxidia Friedmann
@@ -566,7 +582,7 @@
 Rhodohypoxis Nel
 Saniella Hilliard &amp; B.L.Burtt
 Spiloxene Salisb.
-Selon NCBI  (16 avr. 2010)[5] :
+Selon NCBI  (16 avr. 2010) :
 Curculigo
 Empodium
 Hypoxidea
@@ -575,7 +591,7 @@
 Pauridia
 Rhodohypoxis
 Spiloxene
-Selon DELTA Angio           (16 avr. 2010)[6] :
+Selon DELTA Angio           (16 avr. 2010) :
 Curculigo
 Empodium
 Hypoxidia
@@ -610,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 avr. 2010) :
 genre Curculigo
 Curculigo orchioides
 genre Empodium
@@ -637,7 +655,7 @@
 Rhodohypoxis milloides
 genre Spiloxene
 Spiloxene capensis
-Selon World Checklist of Selected Plant Families (WCSP)  (26 avr. 2010)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (26 avr. 2010) :
 genre Curculigo  Gaertn. (1788)
 Curculigo annamitica  Gagnep. (1934)
 Curculigo breviscapa  S.C.Chen (1966)
